--- a/Tidslinje scenario.xlsx
+++ b/Tidslinje scenario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="300" yWindow="920" windowWidth="21740" windowHeight="17260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>action#</t>
   </si>
@@ -65,33 +65,15 @@
     <t>ETA estimated</t>
   </si>
   <si>
-    <t>ETA estimated*</t>
-  </si>
-  <si>
     <t>Directions</t>
   </si>
   <si>
-    <t>ISPS*</t>
-  </si>
-  <si>
-    <t>Pilot confirmed*</t>
-  </si>
-  <si>
-    <t>Summary*</t>
-  </si>
-  <si>
-    <t>ETB, ETD estimated*</t>
-  </si>
-  <si>
     <t>the day before arrival</t>
   </si>
   <si>
     <t>Update</t>
   </si>
   <si>
-    <t>Update + Directions*</t>
-  </si>
-  <si>
     <t>innehåller uppdaterad info försorskad av försening</t>
   </si>
   <si>
@@ -164,12 +146,6 @@
     <t>ej satt</t>
   </si>
   <si>
-    <t>sätts till 23/4 - 06:00</t>
-  </si>
-  <si>
-    <t>sätts till 23/4 - 13:00</t>
-  </si>
-  <si>
     <t>innehåller uppdateringar pga försening och riktlinjer om ankring</t>
   </si>
   <si>
@@ -195,6 +171,39 @@
   </si>
   <si>
     <t>röd färg = osäker på om PortCDM är en lämplig informationsväg</t>
+  </si>
+  <si>
+    <t>Update + Directions</t>
+  </si>
+  <si>
+    <t>ETB, ETD estimated</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Pilot confirmed</t>
+  </si>
+  <si>
+    <t>Receive ISPS</t>
+  </si>
+  <si>
+    <t>Send ISPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g. send ISPS to Coast Guard 24 h pre arrival </t>
+  </si>
+  <si>
+    <t>innan 22/4 kl. 06:00</t>
+  </si>
+  <si>
+    <t>sätts till 23/4 kl. 06:00</t>
+  </si>
+  <si>
+    <t>sätts till 23/4 kl. 13:00</t>
+  </si>
+  <si>
+    <t>Authorities (outside PortCDM)</t>
   </si>
 </sst>
 </file>
@@ -274,8 +283,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -316,17 +327,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -602,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N34"/>
+  <dimension ref="A2:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,7 +628,7 @@
     <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -633,13 +646,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>4</v>
@@ -663,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -701,40 +714,40 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
         <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -746,35 +759,38 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -788,14 +804,14 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -809,14 +825,14 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -824,39 +840,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -866,14 +883,17 @@
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -881,16 +901,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -898,82 +918,82 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>24</v>
       </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>6</v>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
         <v>19</v>
       </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
       <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -984,75 +1004,72 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="C22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1063,13 +1080,16 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1080,13 +1100,13 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1097,71 +1117,71 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1172,72 +1192,89 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="6"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E34" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
